--- a/data/pca/factorExposure/factorExposure_2010-01-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-01-14.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +695,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.003874432122829035</v>
+        <v>0.01711019163388948</v>
       </c>
       <c r="C2">
-        <v>-0.01695348413319834</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.001200720034091784</v>
+      </c>
+      <c r="D2">
+        <v>0.005635804265062855</v>
+      </c>
+      <c r="E2">
+        <v>-0.0005588649606356706</v>
+      </c>
+      <c r="F2">
+        <v>0.01086277913570129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +748,39 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.03010189155256679</v>
+        <v>0.09472825759107198</v>
       </c>
       <c r="C4">
-        <v>-0.1252389269655354</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.01586440391095762</v>
+      </c>
+      <c r="D4">
+        <v>0.08270358559417058</v>
+      </c>
+      <c r="E4">
+        <v>0.02914090737109142</v>
+      </c>
+      <c r="F4">
+        <v>-0.03071128332005445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +788,239 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.03689580153286331</v>
+        <v>0.1571023350903906</v>
       </c>
       <c r="C6">
-        <v>-0.1068856744641864</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.02537350626066495</v>
+      </c>
+      <c r="D6">
+        <v>-0.02366740758469098</v>
+      </c>
+      <c r="E6">
+        <v>0.009401923145240377</v>
+      </c>
+      <c r="F6">
+        <v>-0.04680837868298052</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.009988708475751035</v>
+        <v>0.0606326591127614</v>
       </c>
       <c r="C7">
-        <v>-0.07333915071102733</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.0009469227873820908</v>
+      </c>
+      <c r="D7">
+        <v>0.0525676496190353</v>
+      </c>
+      <c r="E7">
+        <v>0.0109891343386109</v>
+      </c>
+      <c r="F7">
+        <v>-0.04345921615257298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.002887755886577207</v>
+        <v>0.05813952127420419</v>
       </c>
       <c r="C8">
-        <v>-0.05948408308191227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.01332972131314606</v>
+      </c>
+      <c r="D8">
+        <v>0.0320642070424516</v>
+      </c>
+      <c r="E8">
+        <v>0.01699877702953116</v>
+      </c>
+      <c r="F8">
+        <v>0.02833865836548514</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.02526350892205221</v>
+        <v>0.07232590586364901</v>
       </c>
       <c r="C9">
-        <v>-0.1005226964818319</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.01165270000908304</v>
+      </c>
+      <c r="D9">
+        <v>0.08441032015260035</v>
+      </c>
+      <c r="E9">
+        <v>0.02369608139016505</v>
+      </c>
+      <c r="F9">
+        <v>-0.04659328763065713</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.01063729300140966</v>
+        <v>0.09282225492185599</v>
       </c>
       <c r="C10">
-        <v>-0.02221463563563793</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.01929311106067538</v>
+      </c>
+      <c r="D10">
+        <v>-0.1706314687897856</v>
+      </c>
+      <c r="E10">
+        <v>-0.03754396701680131</v>
+      </c>
+      <c r="F10">
+        <v>0.0549900153122802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.02931153244869762</v>
+        <v>0.08801079675031671</v>
       </c>
       <c r="C11">
-        <v>-0.1105409690471436</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.01130067924300856</v>
+      </c>
+      <c r="D11">
+        <v>0.1157189128212454</v>
+      </c>
+      <c r="E11">
+        <v>0.04709885520958099</v>
+      </c>
+      <c r="F11">
+        <v>-0.0192490696359294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.02680305674083149</v>
+        <v>0.09307585373093198</v>
       </c>
       <c r="C12">
-        <v>-0.1198140389466765</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.008429520858767964</v>
+      </c>
+      <c r="D12">
+        <v>0.1297368340387282</v>
+      </c>
+      <c r="E12">
+        <v>0.04745237319474848</v>
+      </c>
+      <c r="F12">
+        <v>-0.02428703994510016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.009528954894181763</v>
+        <v>0.04307926851271147</v>
       </c>
       <c r="C13">
-        <v>-0.03847631172087437</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.003739983061794409</v>
+      </c>
+      <c r="D13">
+        <v>0.04932693970508775</v>
+      </c>
+      <c r="E13">
+        <v>-0.01027319593869208</v>
+      </c>
+      <c r="F13">
+        <v>-0.002175565916785788</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.0163289987592896</v>
+        <v>0.02280257624566438</v>
       </c>
       <c r="C14">
-        <v>-0.02607621524607915</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.01402646399052977</v>
+      </c>
+      <c r="D14">
+        <v>0.03388439857066247</v>
+      </c>
+      <c r="E14">
+        <v>0.01752114625326873</v>
+      </c>
+      <c r="F14">
+        <v>-0.01375238168651649</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01030961558771898</v>
+        <v>0.03148184334991383</v>
       </c>
       <c r="C15">
-        <v>-0.02713775053250697</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.005102381455872371</v>
+      </c>
+      <c r="D15">
+        <v>0.04508362368361868</v>
+      </c>
+      <c r="E15">
+        <v>0.006739270251141119</v>
+      </c>
+      <c r="F15">
+        <v>-0.02144810409336593</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.01853210460418555</v>
+        <v>0.07351438672611064</v>
       </c>
       <c r="C16">
-        <v>-0.1145530405047187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.002217374626898627</v>
+      </c>
+      <c r="D16">
+        <v>0.1258268968841456</v>
+      </c>
+      <c r="E16">
+        <v>0.0621763559835076</v>
+      </c>
+      <c r="F16">
+        <v>-0.02226366457878418</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,21 +1028,39 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.02774520936455585</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-0.003666801470951329</v>
+      </c>
+      <c r="D18">
+        <v>0.02194297156594337</v>
+      </c>
+      <c r="E18">
+        <v>-0.00605046285403939</v>
+      </c>
+      <c r="F18">
+        <v>0.007157606522566355</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1068,159 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01171395047878874</v>
+        <v>0.06081458761968871</v>
       </c>
       <c r="C20">
-        <v>-0.06856849896396534</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.000618931587333711</v>
+      </c>
+      <c r="D20">
+        <v>0.07685924917938528</v>
+      </c>
+      <c r="E20">
+        <v>0.05615321435585751</v>
+      </c>
+      <c r="F20">
+        <v>-0.02108819163057284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.01247864590737165</v>
+        <v>0.03931581717059952</v>
       </c>
       <c r="C21">
-        <v>-0.01941632090032726</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.006433234041853116</v>
+      </c>
+      <c r="D21">
+        <v>0.03730099682345182</v>
+      </c>
+      <c r="E21">
+        <v>-0.005774007860079079</v>
+      </c>
+      <c r="F21">
+        <v>0.02676059997230297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.004068215887921548</v>
+        <v>0.04412992911454662</v>
       </c>
       <c r="C22">
-        <v>-0.02746221183617282</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.0009923857954352512</v>
+      </c>
+      <c r="D22">
+        <v>0.001344713084855714</v>
+      </c>
+      <c r="E22">
+        <v>0.02784315176292672</v>
+      </c>
+      <c r="F22">
+        <v>0.03072671350628939</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.004056417945381449</v>
+        <v>0.0441149434065558</v>
       </c>
       <c r="C23">
-        <v>-0.02739310711114462</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.0009880568417985948</v>
+      </c>
+      <c r="D23">
+        <v>0.001349961285637785</v>
+      </c>
+      <c r="E23">
+        <v>0.02804516931941714</v>
+      </c>
+      <c r="F23">
+        <v>0.03069243487763792</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.01884087629060596</v>
+        <v>0.08008200083102256</v>
       </c>
       <c r="C24">
-        <v>-0.115413710876527</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.002915886065080551</v>
+      </c>
+      <c r="D24">
+        <v>0.1196798124825081</v>
+      </c>
+      <c r="E24">
+        <v>0.05037062092869496</v>
+      </c>
+      <c r="F24">
+        <v>-0.02313984604306622</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.02417420337277361</v>
+        <v>0.08512896860249472</v>
       </c>
       <c r="C25">
-        <v>-0.1207226679901563</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.005126553250817594</v>
+      </c>
+      <c r="D25">
+        <v>0.1085101207078652</v>
+      </c>
+      <c r="E25">
+        <v>0.03327809139711502</v>
+      </c>
+      <c r="F25">
+        <v>-0.02450505779367426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.02354557857055703</v>
+        <v>0.05730858621983105</v>
       </c>
       <c r="C26">
-        <v>-0.05012407892104143</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.01461398243438873</v>
+      </c>
+      <c r="D26">
+        <v>0.04139006531367254</v>
+      </c>
+      <c r="E26">
+        <v>0.02810440478706404</v>
+      </c>
+      <c r="F26">
+        <v>0.01130674239712429</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,164 +1228,299 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.003169180963670662</v>
+        <v>0.1401789360759712</v>
       </c>
       <c r="C28">
-        <v>-0.01777137445335272</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.01878718223066183</v>
+      </c>
+      <c r="D28">
+        <v>-0.2644899942393089</v>
+      </c>
+      <c r="E28">
+        <v>-0.06847348795994258</v>
+      </c>
+      <c r="F28">
+        <v>-0.008526900712512346</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01298869171697222</v>
+        <v>0.02726342657728301</v>
       </c>
       <c r="C29">
-        <v>-0.0325051421618788</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.008221181331086173</v>
+      </c>
+      <c r="D29">
+        <v>0.03291285126404746</v>
+      </c>
+      <c r="E29">
+        <v>0.01138330480528043</v>
+      </c>
+      <c r="F29">
+        <v>0.01115857640004948</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.01561761187228405</v>
+        <v>0.06247817151774705</v>
       </c>
       <c r="C30">
-        <v>-0.1269238415948631</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.004318103286052005</v>
+      </c>
+      <c r="D30">
+        <v>0.08699056630218788</v>
+      </c>
+      <c r="E30">
+        <v>0.02118044290970346</v>
+      </c>
+      <c r="F30">
+        <v>-0.08090699114476457</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02173143773759895</v>
+        <v>0.04954265339292509</v>
       </c>
       <c r="C31">
-        <v>-0.03599826769072767</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01527013543003501</v>
+      </c>
+      <c r="D31">
+        <v>0.02513025905809138</v>
+      </c>
+      <c r="E31">
+        <v>0.02749497462908806</v>
+      </c>
+      <c r="F31">
+        <v>0.002526218713983738</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.006432795982621456</v>
+        <v>0.04910327581834535</v>
       </c>
       <c r="C32">
-        <v>-0.05640168031405871</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.001229557786212756</v>
+      </c>
+      <c r="D32">
+        <v>0.03685110196902788</v>
+      </c>
+      <c r="E32">
+        <v>0.03126595112355311</v>
+      </c>
+      <c r="F32">
+        <v>6.889256577493607e-06</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02236547353790955</v>
+        <v>0.0904560272790333</v>
       </c>
       <c r="C33">
-        <v>-0.1161535085714274</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.008339766241774182</v>
+      </c>
+      <c r="D33">
+        <v>0.09858807753235871</v>
+      </c>
+      <c r="E33">
+        <v>0.04550036956610579</v>
+      </c>
+      <c r="F33">
+        <v>-0.03409173738904153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.02597587166784908</v>
+        <v>0.06832142486368593</v>
       </c>
       <c r="C34">
-        <v>-0.1004255163127721</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01153183915652475</v>
+      </c>
+      <c r="D34">
+        <v>0.1055704791587384</v>
+      </c>
+      <c r="E34">
+        <v>0.03507618711725995</v>
+      </c>
+      <c r="F34">
+        <v>-0.03164832644261847</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.003953291741008626</v>
+        <v>0.02358905653501282</v>
       </c>
       <c r="C35">
-        <v>-0.01314448870434155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.002403387960017561</v>
+      </c>
+      <c r="D35">
+        <v>0.01218632160372989</v>
+      </c>
+      <c r="E35">
+        <v>0.01147121049102081</v>
+      </c>
+      <c r="F35">
+        <v>-0.0008977033298529501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01060736482514538</v>
+        <v>0.02576412732195099</v>
       </c>
       <c r="C36">
-        <v>-0.02974287501963722</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.007026633997329145</v>
+      </c>
+      <c r="D36">
+        <v>0.0403961702191311</v>
+      </c>
+      <c r="E36">
+        <v>0.0159256775999058</v>
+      </c>
+      <c r="F36">
+        <v>-0.01418747999890104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-4.687774786902292e-05</v>
       </c>
       <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>-1.283920442569786e-05</v>
+      </c>
+      <c r="D37">
+        <v>-0.000105950551982289</v>
+      </c>
+      <c r="E37">
+        <v>-8.095683752544992e-06</v>
+      </c>
+      <c r="F37">
+        <v>-0.0003161056706642978</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0005375253863910172</v>
+        <v>0.001285508532506035</v>
       </c>
       <c r="C38">
-        <v>-0.004223564315851064</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.0001850396407798134</v>
+      </c>
+      <c r="D38">
+        <v>0.0006615309689359013</v>
+      </c>
+      <c r="E38">
+        <v>0.0009149552615448952</v>
+      </c>
+      <c r="F38">
+        <v>0.0006792024475546563</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.04220026499196843</v>
+        <v>0.1075416607386927</v>
       </c>
       <c r="C39">
-        <v>-0.1780607712097784</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.01679270497758408</v>
+      </c>
+      <c r="D39">
+        <v>0.1521715323389951</v>
+      </c>
+      <c r="E39">
+        <v>0.05950380528181032</v>
+      </c>
+      <c r="F39">
+        <v>-0.02688634047781302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01141073352108098</v>
+        <v>0.03975910621777571</v>
       </c>
       <c r="C40">
-        <v>-0.01292830871997299</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.007249054013627322</v>
+      </c>
+      <c r="D40">
+        <v>0.0324391805920989</v>
+      </c>
+      <c r="E40">
+        <v>0.003046326270946181</v>
+      </c>
+      <c r="F40">
+        <v>0.01722952226674654</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01111254466553505</v>
+        <v>0.02639437506896644</v>
       </c>
       <c r="C41">
-        <v>-0.02109175216179191</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.006558380881055213</v>
+      </c>
+      <c r="D41">
+        <v>0.01143090644587341</v>
+      </c>
+      <c r="E41">
+        <v>0.01245885687272421</v>
+      </c>
+      <c r="F41">
+        <v>0.007140630590036077</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1528,59 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01327686354385346</v>
+        <v>0.03986334787964568</v>
       </c>
       <c r="C43">
-        <v>-0.02613212521768565</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.006774304759413939</v>
+      </c>
+      <c r="D43">
+        <v>0.02115926339790697</v>
+      </c>
+      <c r="E43">
+        <v>0.02520189142791535</v>
+      </c>
+      <c r="F43">
+        <v>0.01264625225574529</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.0312818935673</v>
+        <v>0.0779338529667246</v>
       </c>
       <c r="C44">
-        <v>-0.1338972894359622</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.02068102097700551</v>
+      </c>
+      <c r="D44">
+        <v>0.09943255252668026</v>
+      </c>
+      <c r="E44">
+        <v>0.0677845115441683</v>
+      </c>
+      <c r="F44">
+        <v>-0.1509905762164556</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,131 +1588,239 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.005451259485133089</v>
+        <v>0.02412124726763583</v>
       </c>
       <c r="C46">
-        <v>-0.007785229559890881</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.003783751212068968</v>
+      </c>
+      <c r="D46">
+        <v>0.01194978846102817</v>
+      </c>
+      <c r="E46">
+        <v>0.02156681946778747</v>
+      </c>
+      <c r="F46">
+        <v>0.004713745599545037</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.01000092309997412</v>
+        <v>0.05061233357746107</v>
       </c>
       <c r="C47">
-        <v>-0.03863320170607073</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.003654384707906064</v>
+      </c>
+      <c r="D47">
+        <v>0.01210182279063668</v>
+      </c>
+      <c r="E47">
+        <v>0.02250728809455581</v>
+      </c>
+      <c r="F47">
+        <v>0.03342033196828984</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01197265991914696</v>
+        <v>0.04858502550716948</v>
       </c>
       <c r="C48">
-        <v>-0.0470409053680711</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.002496140700024683</v>
+      </c>
+      <c r="D48">
+        <v>0.05061726431038247</v>
+      </c>
+      <c r="E48">
+        <v>-0.006484967800840316</v>
+      </c>
+      <c r="F48">
+        <v>-0.008266760695130944</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.03621359236593201</v>
+        <v>0.200707236487178</v>
       </c>
       <c r="C49">
-        <v>-0.198458948676064</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.01875534984821071</v>
+      </c>
+      <c r="D49">
+        <v>-0.01100769327590614</v>
+      </c>
+      <c r="E49">
+        <v>0.03042411026364514</v>
+      </c>
+      <c r="F49">
+        <v>-0.0397728784336286</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.01824645879068201</v>
+        <v>0.04973633309727021</v>
       </c>
       <c r="C50">
-        <v>-0.04242611689042449</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01128875074430876</v>
+      </c>
+      <c r="D50">
+        <v>0.0242691692102647</v>
+      </c>
+      <c r="E50">
+        <v>0.02980045472688305</v>
+      </c>
+      <c r="F50">
+        <v>-0.007882950066548149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0005001685321067531</v>
+        <v>0.001133034753315744</v>
       </c>
       <c r="C51">
-        <v>-0.003255719874115843</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.000324173333271283</v>
+      </c>
+      <c r="D51">
+        <v>-0.0009069945577976368</v>
+      </c>
+      <c r="E51">
+        <v>0.000200649051844779</v>
+      </c>
+      <c r="F51">
+        <v>-0.003231045015439529</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.02968737630323362</v>
+        <v>0.1467491581712887</v>
       </c>
       <c r="C52">
-        <v>-0.1481206699409449</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0.0154723666498221</v>
+      </c>
+      <c r="D52">
+        <v>0.04479481285112477</v>
+      </c>
+      <c r="E52">
+        <v>0.02026512211713812</v>
+      </c>
+      <c r="F52">
+        <v>-0.04298343390195264</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.03099390371631578</v>
+        <v>0.1739853711732567</v>
       </c>
       <c r="C53">
-        <v>-0.1636612213034276</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.01863456511338928</v>
+      </c>
+      <c r="D53">
+        <v>0.004320568296859228</v>
+      </c>
+      <c r="E53">
+        <v>0.03136716372598451</v>
+      </c>
+      <c r="F53">
+        <v>-0.07566732415155386</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01535171676050825</v>
+        <v>0.02143249837006473</v>
       </c>
       <c r="C54">
-        <v>-0.04634387952743661</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01240615785422006</v>
+      </c>
+      <c r="D54">
+        <v>0.03329375941986261</v>
+      </c>
+      <c r="E54">
+        <v>0.01708963324304719</v>
+      </c>
+      <c r="F54">
+        <v>0.003633912831121138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.02375110422185279</v>
+        <v>0.1143141945476821</v>
       </c>
       <c r="C55">
-        <v>-0.0865049706668472</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.01653144759492467</v>
+      </c>
+      <c r="D55">
+        <v>0.00895509709098434</v>
+      </c>
+      <c r="E55">
+        <v>0.02805226514879395</v>
+      </c>
+      <c r="F55">
+        <v>-0.04827720471008305</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.03171279546515101</v>
+        <v>0.178580704777474</v>
       </c>
       <c r="C56">
-        <v>-0.1624776272577685</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.0160385856046115</v>
+      </c>
+      <c r="D56">
+        <v>0.0005805314888681759</v>
+      </c>
+      <c r="E56">
+        <v>0.03647086026273049</v>
+      </c>
+      <c r="F56">
+        <v>-0.05431706431058819</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,494 +1828,899 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.01283079912038934</v>
+        <v>0.04619531579037641</v>
       </c>
       <c r="C58">
-        <v>-0.04807395167283185</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.001095503236226249</v>
+      </c>
+      <c r="D58">
+        <v>0.06719017421133194</v>
+      </c>
+      <c r="E58">
+        <v>0.02738589597343613</v>
+      </c>
+      <c r="F58">
+        <v>0.03744575242225477</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.01026661454980658</v>
+        <v>0.168794937836105</v>
       </c>
       <c r="C59">
-        <v>-0.069618043868309</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.0197651139842403</v>
+      </c>
+      <c r="D59">
+        <v>-0.222865491454937</v>
+      </c>
+      <c r="E59">
+        <v>-0.0459834150747505</v>
+      </c>
+      <c r="F59">
+        <v>0.03372737577960543</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.02377902885753546</v>
+        <v>0.234144418169115</v>
       </c>
       <c r="C60">
-        <v>-0.2806669343660571</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.002518544031063661</v>
+      </c>
+      <c r="D60">
+        <v>0.03912095372858601</v>
+      </c>
+      <c r="E60">
+        <v>0.01040588764842357</v>
+      </c>
+      <c r="F60">
+        <v>0.00284789585942395</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.02927140957446459</v>
+        <v>0.08330753396161877</v>
       </c>
       <c r="C61">
-        <v>-0.1323084144443995</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.01266617928211639</v>
+      </c>
+      <c r="D61">
+        <v>0.1155593526335058</v>
+      </c>
+      <c r="E61">
+        <v>0.03920757900745654</v>
+      </c>
+      <c r="F61">
+        <v>-0.009870181801828798</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.03380111513838541</v>
+        <v>0.1705256071197288</v>
       </c>
       <c r="C62">
-        <v>-0.165011049803043</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.01951842763146913</v>
+      </c>
+      <c r="D62">
+        <v>0.006243659509289411</v>
+      </c>
+      <c r="E62">
+        <v>0.03544687484194534</v>
+      </c>
+      <c r="F62">
+        <v>-0.03634874146180501</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01138549916597189</v>
+        <v>0.04389369292352054</v>
       </c>
       <c r="C63">
-        <v>-0.05581215077618682</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.002190222031545207</v>
+      </c>
+      <c r="D63">
+        <v>0.0588920182066329</v>
+      </c>
+      <c r="E63">
+        <v>0.02060472481720311</v>
+      </c>
+      <c r="F63">
+        <v>-0.004081651384573569</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.02265560684987884</v>
+        <v>0.1108198782493941</v>
       </c>
       <c r="C64">
-        <v>-0.1005294296965583</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.01166008130645314</v>
+      </c>
+      <c r="D64">
+        <v>0.04221034714069007</v>
+      </c>
+      <c r="E64">
+        <v>0.02340034639093284</v>
+      </c>
+      <c r="F64">
+        <v>-0.02626810566706432</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.03708176474038625</v>
+        <v>0.1468922508867803</v>
       </c>
       <c r="C65">
-        <v>-0.1031593180805365</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.03226826849700516</v>
+      </c>
+      <c r="D65">
+        <v>-0.04224263767365055</v>
+      </c>
+      <c r="E65">
+        <v>0.003513810901780298</v>
+      </c>
+      <c r="F65">
+        <v>-0.03905372403678642</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.0408338853910121</v>
+        <v>0.1278507042336529</v>
       </c>
       <c r="C66">
-        <v>-0.2105210816370768</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.01488308769436883</v>
+      </c>
+      <c r="D66">
+        <v>0.1402114119623969</v>
+      </c>
+      <c r="E66">
+        <v>0.06725511132389943</v>
+      </c>
+      <c r="F66">
+        <v>-0.03006295393792478</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.01434470800480171</v>
+        <v>0.06292708757186792</v>
       </c>
       <c r="C67">
-        <v>-0.06185601880249396</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.00330238304747462</v>
+      </c>
+      <c r="D67">
+        <v>0.05403454633020713</v>
+      </c>
+      <c r="E67">
+        <v>0.01716549713401712</v>
+      </c>
+      <c r="F67">
+        <v>0.03285624810629342</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.01408224481209547</v>
+        <v>0.1152816008448225</v>
       </c>
       <c r="C68">
-        <v>-0.01907708935910467</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.02880684219798268</v>
+      </c>
+      <c r="D68">
+        <v>-0.2599291406519842</v>
+      </c>
+      <c r="E68">
+        <v>-0.08654864116143197</v>
+      </c>
+      <c r="F68">
+        <v>-0.005546057586214217</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.005641627727331039</v>
+        <v>0.03954271567396799</v>
       </c>
       <c r="C69">
-        <v>-0.03428830330707559</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.001259910883011294</v>
+      </c>
+      <c r="D69">
+        <v>0.007245847020105893</v>
+      </c>
+      <c r="E69">
+        <v>0.02328497927215674</v>
+      </c>
+      <c r="F69">
+        <v>0.001168809526261113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.001912574802829342</v>
+        <v>0.06328704443658946</v>
       </c>
       <c r="C70">
-        <v>-0.03548664508715611</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.02814733967198219</v>
+      </c>
+      <c r="D70">
+        <v>0.02644441523216405</v>
+      </c>
+      <c r="E70">
+        <v>-0.04316952951574583</v>
+      </c>
+      <c r="F70">
+        <v>0.1868962496529718</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.0175341362661022</v>
+        <v>0.1342662070813965</v>
       </c>
       <c r="C71">
-        <v>-0.02022744337812737</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.03377961016865807</v>
+      </c>
+      <c r="D71">
+        <v>-0.2743793410109439</v>
+      </c>
+      <c r="E71">
+        <v>-0.09644656898778452</v>
+      </c>
+      <c r="F71">
+        <v>-0.01170398170893803</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.03522886900863278</v>
+        <v>0.1407234706737564</v>
       </c>
       <c r="C72">
-        <v>-0.116512429034211</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.02599385590967325</v>
+      </c>
+      <c r="D72">
+        <v>-0.0004101840415467663</v>
+      </c>
+      <c r="E72">
+        <v>0.03970783359918156</v>
+      </c>
+      <c r="F72">
+        <v>-0.03547798126234444</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.03283388682184697</v>
+        <v>0.2009720804355281</v>
       </c>
       <c r="C73">
-        <v>-0.2020802206112631</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.01307489265522061</v>
+      </c>
+      <c r="D73">
+        <v>0.01431088820614675</v>
+      </c>
+      <c r="E73">
+        <v>0.06441329130558898</v>
+      </c>
+      <c r="F73">
+        <v>-0.03877286576781976</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.01952874776618121</v>
+        <v>0.09483126938094563</v>
       </c>
       <c r="C74">
-        <v>-0.1143469401720374</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.01308374751364128</v>
+      </c>
+      <c r="D74">
+        <v>0.01805519863259907</v>
+      </c>
+      <c r="E74">
+        <v>0.04487464325104164</v>
+      </c>
+      <c r="F74">
+        <v>-0.05747340736367632</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.04087816544290951</v>
+        <v>0.1291438665798636</v>
       </c>
       <c r="C75">
-        <v>-0.1378360281494115</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.02770221690989523</v>
+      </c>
+      <c r="D75">
+        <v>0.02955554655421877</v>
+      </c>
+      <c r="E75">
+        <v>0.05869137129958247</v>
+      </c>
+      <c r="F75">
+        <v>-0.01950382748370136</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.000434279911181311</v>
+        <v>0.001170784960447905</v>
       </c>
       <c r="C76">
-        <v>-0.00399533064835071</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.0003202588345852008</v>
+      </c>
+      <c r="D76">
+        <v>-0.0009484430114134623</v>
+      </c>
+      <c r="E76">
+        <v>0.0002672218177775415</v>
+      </c>
+      <c r="F76">
+        <v>-0.001408790393764266</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.02432991557876968</v>
+        <v>0.08142210834416146</v>
       </c>
       <c r="C77">
-        <v>-0.1089023852613105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.008465458345919516</v>
+      </c>
+      <c r="D77">
+        <v>0.116931892472698</v>
+      </c>
+      <c r="E77">
+        <v>0.04011948077960866</v>
+      </c>
+      <c r="F77">
+        <v>-0.02568925148981967</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.05296893122838631</v>
+        <v>0.1014866571057518</v>
       </c>
       <c r="C78">
-        <v>-0.1272482506063106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03957879462467447</v>
+      </c>
+      <c r="D78">
+        <v>0.1157388066888498</v>
+      </c>
+      <c r="E78">
+        <v>0.07794573775842147</v>
+      </c>
+      <c r="F78">
+        <v>-0.04575091938270756</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.03561169023063858</v>
+        <v>0.1646663757646661</v>
       </c>
       <c r="C79">
-        <v>-0.1468996825585298</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.02218238734130824</v>
+      </c>
+      <c r="D79">
+        <v>0.0151213393631891</v>
+      </c>
+      <c r="E79">
+        <v>0.04677153933047309</v>
+      </c>
+      <c r="F79">
+        <v>-0.01295520022338129</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.008421874079156408</v>
+        <v>0.08217775495614742</v>
       </c>
       <c r="C80">
-        <v>-0.09679725929358633</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.0005695724065561249</v>
+      </c>
+      <c r="D80">
+        <v>0.05712836920013171</v>
+      </c>
+      <c r="E80">
+        <v>0.036152523931677</v>
+      </c>
+      <c r="F80">
+        <v>0.02539521088369156</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.04252755762585897</v>
+        <v>0.1229355313475644</v>
       </c>
       <c r="C81">
-        <v>-0.1510437517368264</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.03145567650128073</v>
+      </c>
+      <c r="D81">
+        <v>0.01500905658646505</v>
+      </c>
+      <c r="E81">
+        <v>0.05879131161248329</v>
+      </c>
+      <c r="F81">
+        <v>-0.01831890492297802</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.03692912187304965</v>
+        <v>0.165971498339415</v>
       </c>
       <c r="C82">
-        <v>-0.1669524408557386</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.02397634218899576</v>
+      </c>
+      <c r="D82">
+        <v>0.004848036121064383</v>
+      </c>
+      <c r="E82">
+        <v>0.02926145003074156</v>
+      </c>
+      <c r="F82">
+        <v>-0.08183589391240324</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.01810304120114587</v>
+        <v>0.06165335839118608</v>
       </c>
       <c r="C83">
-        <v>-0.07490279438533841</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.003286051718838678</v>
+      </c>
+      <c r="D83">
+        <v>0.04974623705021559</v>
+      </c>
+      <c r="E83">
+        <v>0.005949541403040827</v>
+      </c>
+      <c r="F83">
+        <v>0.03261772106521629</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.02552720044604465</v>
+        <v>0.05876681813298766</v>
       </c>
       <c r="C84">
-        <v>-0.07479575829600715</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01111166391848793</v>
+      </c>
+      <c r="D84">
+        <v>0.0646876188990396</v>
+      </c>
+      <c r="E84">
+        <v>0.007194391237391583</v>
+      </c>
+      <c r="F84">
+        <v>-0.00478669796967006</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.03713565584731864</v>
+        <v>0.1378255860565571</v>
       </c>
       <c r="C85">
-        <v>-0.122075099125485</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.02752640718190049</v>
+      </c>
+      <c r="D85">
+        <v>0.01051186441445449</v>
+      </c>
+      <c r="E85">
+        <v>0.03947021315305139</v>
+      </c>
+      <c r="F85">
+        <v>-0.04696652856201328</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.007464575793018602</v>
+        <v>0.09625537467778816</v>
       </c>
       <c r="C86">
-        <v>-0.1049131196127232</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.006424564321591514</v>
+      </c>
+      <c r="D86">
+        <v>0.03945580876895395</v>
+      </c>
+      <c r="E86">
+        <v>0.2065400043605312</v>
+      </c>
+      <c r="F86">
+        <v>0.9102530067056481</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.03831375200747563</v>
+        <v>0.09704057710240255</v>
       </c>
       <c r="C87">
-        <v>-0.1071301435978725</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.02067808786162693</v>
+      </c>
+      <c r="D87">
+        <v>0.09531585235630159</v>
+      </c>
+      <c r="E87">
+        <v>-0.05113838113221249</v>
+      </c>
+      <c r="F87">
+        <v>-0.05180922811772635</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.01280343785957003</v>
+        <v>0.06100098569658728</v>
       </c>
       <c r="C88">
-        <v>-0.05819044902592806</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.002493667713009155</v>
+      </c>
+      <c r="D88">
+        <v>0.04998844998956566</v>
+      </c>
+      <c r="E88">
+        <v>0.02500779182314708</v>
+      </c>
+      <c r="F88">
+        <v>-0.01280497030093252</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.0005548777706705076</v>
+        <v>0.1315628433133788</v>
       </c>
       <c r="C89">
-        <v>-0.0366638390042111</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.01152328012951374</v>
+      </c>
+      <c r="D89">
+        <v>-0.2524624122702664</v>
+      </c>
+      <c r="E89">
+        <v>-0.0911615559719272</v>
+      </c>
+      <c r="F89">
+        <v>0.008329793260958077</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.01610590094700305</v>
+        <v>0.1466323248343261</v>
       </c>
       <c r="C90">
-        <v>-0.02208885417936699</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.02942247956166237</v>
+      </c>
+      <c r="D90">
+        <v>-0.2666396521995659</v>
+      </c>
+      <c r="E90">
+        <v>-0.1108185052814097</v>
+      </c>
+      <c r="F90">
+        <v>0.002695365247242708</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.02254618585585055</v>
+        <v>0.119667328621004</v>
       </c>
       <c r="C91">
-        <v>-0.09461545116277709</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.01837229219229458</v>
+      </c>
+      <c r="D91">
+        <v>-0.01282005391645014</v>
+      </c>
+      <c r="E91">
+        <v>0.05677450249222852</v>
+      </c>
+      <c r="F91">
+        <v>0.001499466563232216</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.0001308575635105832</v>
+        <v>0.1457247491504091</v>
       </c>
       <c r="C92">
-        <v>-0.03613617997901886</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.0214373512284015</v>
+      </c>
+      <c r="D92">
+        <v>-0.2910604345629899</v>
+      </c>
+      <c r="E92">
+        <v>-0.10102704654613</v>
+      </c>
+      <c r="F92">
+        <v>0.01335693526676383</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.01239518926669713</v>
+        <v>0.1497890930567487</v>
       </c>
       <c r="C93">
-        <v>-0.02694185016872439</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.02562899305906307</v>
+      </c>
+      <c r="D93">
+        <v>-0.2680464145907151</v>
+      </c>
+      <c r="E93">
+        <v>-0.0780039753334071</v>
+      </c>
+      <c r="F93">
+        <v>-0.003695639305691486</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.04049967114902398</v>
+        <v>0.131875726593683</v>
       </c>
       <c r="C94">
-        <v>-0.1616536074645457</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.02463266351892479</v>
+      </c>
+      <c r="D94">
+        <v>0.04271722124182861</v>
+      </c>
+      <c r="E94">
+        <v>0.0584015441643165</v>
+      </c>
+      <c r="F94">
+        <v>-0.03738959290115328</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.02487176713289228</v>
+        <v>0.1255542573286069</v>
       </c>
       <c r="C95">
-        <v>-0.1423824339060403</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.004577134236711767</v>
+      </c>
+      <c r="D95">
+        <v>0.0908508734144325</v>
+      </c>
+      <c r="E95">
+        <v>0.04646300071937721</v>
+      </c>
+      <c r="F95">
+        <v>0.01037572615699173</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.9767672495213959</v>
+        <v>0.1049900597286753</v>
       </c>
       <c r="C96">
-        <v>-0.1949447061269821</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.9879538590298629</v>
+      </c>
+      <c r="D96">
+        <v>-0.04091909270897323</v>
+      </c>
+      <c r="E96">
+        <v>0.05642921633880523</v>
+      </c>
+      <c r="F96">
+        <v>-0.04253091251115961</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.003478287070079194</v>
+        <v>0.1916725259916845</v>
       </c>
       <c r="C97">
-        <v>-0.1721845414344083</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.008457732951210439</v>
+      </c>
+      <c r="D97">
+        <v>-0.01685229864891553</v>
+      </c>
+      <c r="E97">
+        <v>0.0149764709823358</v>
+      </c>
+      <c r="F97">
+        <v>0.09207803095713506</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.02404627388943248</v>
+        <v>0.2062370839457491</v>
       </c>
       <c r="C98">
-        <v>-0.1897251408246436</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.007815821914405503</v>
+      </c>
+      <c r="D98">
+        <v>0.007638563069069021</v>
+      </c>
+      <c r="E98">
+        <v>-0.08622275936699063</v>
+      </c>
+      <c r="F98">
+        <v>0.09336483767858311</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.003556958268826177</v>
+        <v>0.05610070612033496</v>
       </c>
       <c r="C99">
-        <v>-0.05684259395412844</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.004351038709264498</v>
+      </c>
+      <c r="D99">
+        <v>0.03900719969996151</v>
+      </c>
+      <c r="E99">
+        <v>0.02389571439351655</v>
+      </c>
+      <c r="F99">
+        <v>-0.0004488133757272859</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.00620030463229997</v>
+        <v>0.1277900904443924</v>
       </c>
       <c r="C100">
-        <v>-0.1582570035193612</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.05277517543674917</v>
+      </c>
+      <c r="D100">
+        <v>0.3462561861831689</v>
+      </c>
+      <c r="E100">
+        <v>-0.8889435431647238</v>
+      </c>
+      <c r="F100">
+        <v>0.1324830616350196</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.01300594306811676</v>
+        <v>0.02718069941882528</v>
       </c>
       <c r="C101">
-        <v>-0.03246728261895197</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.008230203614394282</v>
+      </c>
+      <c r="D101">
+        <v>0.03261590298153891</v>
+      </c>
+      <c r="E101">
+        <v>0.01081106708695039</v>
+      </c>
+      <c r="F101">
+        <v>0.01239993101648679</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2728,19 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2748,33 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
